--- a/data/climate_data_availability/6188_data.xlsx
+++ b/data/climate_data_availability/6188_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_262064899571BA85E5CA9477637A5AB48ED211CB" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="24">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,41 +63,44 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>hygro</t>
   </si>
   <si>
-    <t>latitude</t>
+    <t>Lat</t>
   </si>
   <si>
-    <t>altitude</t>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Mvuazi</t>
   </si>
   <si>
-    <t>14°49'</t>
+    <t>5°26'58"</t>
   </si>
   <si>
-    <t>5°26'58"</t>
+    <t>14°49'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,63 +251,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
@@ -311,29 +319,25 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +429,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,37 +673,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29:D40"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -697,22 +735,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6188</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -763,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6188</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -828,12 +869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6188</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -884,12 +925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6188</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -940,12 +981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6188</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -996,12 +1037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6188</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -1052,12 +1093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6188</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1108,12 +1149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6188</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1164,12 +1205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6188</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1220,12 +1261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6188</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1276,12 +1317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6188</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1332,12 +1373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6188</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1388,12 +1429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6188</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1444,12 +1485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6188</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1500,12 +1541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6188</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1556,12 +1597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6188</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1612,12 +1653,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6188</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1668,12 +1709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6188</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1724,12 +1765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6188</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1780,12 +1821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6188</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1836,12 +1877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6188</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1892,12 +1933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6188</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1948,12 +1989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6188</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2004,12 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6188</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -2060,12 +2101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6188</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2116,12 +2157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6188</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -2172,12 +2213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6188</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -2228,12 +2269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6188</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2284,12 +2325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6188</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2340,12 +2381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6188</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2396,12 +2437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6188</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2452,12 +2493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6188</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2508,12 +2549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6188</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2564,12 +2605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6188</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -2620,12 +2661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6188</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -2676,12 +2717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6188</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -2732,12 +2773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6188</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -2788,12 +2829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6188</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -2844,12 +2885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6188</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>12</v>
@@ -2900,12 +2941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6188</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2956,12 +2997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6188</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3012,12 +3053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6188</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3068,12 +3109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6188</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3124,12 +3165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6188</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3180,12 +3221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6188</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3236,12 +3277,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6188</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3292,12 +3333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6188</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -3348,12 +3389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6188</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>9</v>
@@ -3404,12 +3445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6188</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3460,12 +3501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6188</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -3516,12 +3557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6188</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>12</v>
@@ -3572,12 +3613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6188</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3628,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6188</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3684,12 +3725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6188</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3740,12 +3781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6188</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -3796,12 +3837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6188</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -3852,12 +3893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6188</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -3908,12 +3949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6188</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -3964,12 +4005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6188</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -4020,12 +4061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6188</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -4076,12 +4117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6188</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -4132,12 +4173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6188</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>11</v>
@@ -4188,12 +4229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6188</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -4244,12 +4285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6188</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4300,12 +4341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6188</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4356,12 +4397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6188</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4412,12 +4453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6188</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4468,12 +4509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6188</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -4524,12 +4565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6188</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -4580,12 +4621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6188</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -4636,12 +4677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6188</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -4692,12 +4733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6188</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -4748,12 +4789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6188</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -4804,12 +4845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6188</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>11</v>
@@ -4860,12 +4901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6188</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -4916,12 +4957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6188</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4972,12 +5013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6188</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -5028,12 +5069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6188</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -5084,12 +5125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6188</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -5140,12 +5181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6188</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -5196,12 +5237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6188</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5252,12 +5293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>6188</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -5308,12 +5349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>6188</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -5364,12 +5405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>6188</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -5420,12 +5461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>6188</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -5476,12 +5517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>6188</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>11</v>
@@ -5532,12 +5573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>6188</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -5588,12 +5629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>6188</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5644,12 +5685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>6188</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -5700,12 +5741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>6188</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5756,12 +5797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>6188</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -5812,12 +5853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>6188</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -5868,12 +5909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>6188</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -5924,12 +5965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>6188</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -5980,12 +6021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>6188</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -6036,12 +6077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>6188</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -6092,12 +6133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>6188</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>10</v>
@@ -6148,12 +6189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>6188</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>11</v>
@@ -6204,12 +6245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>6188</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -6260,12 +6301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>6188</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6316,12 +6357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>6188</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -6372,12 +6413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>6188</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -6428,12 +6469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>6188</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -6484,12 +6525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>6188</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -6540,12 +6581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>6188</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>6</v>
@@ -6596,12 +6637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>6188</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -6652,12 +6693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>6188</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -6708,12 +6749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>6188</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -6764,12 +6805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>6188</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -6820,12 +6861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>6188</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -6876,12 +6917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>6188</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112">
         <v>12</v>
@@ -6932,12 +6973,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>6188</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6988,12 +7029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>6188</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -7044,12 +7085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>6188</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -7100,12 +7141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>6188</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -7156,12 +7197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>6188</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -7212,12 +7253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>6188</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -7268,12 +7309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>6188</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119">
         <v>7</v>
@@ -7324,12 +7365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>6188</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120">
         <v>8</v>
@@ -7380,12 +7421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>6188</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -7436,12 +7477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>6188</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -7492,12 +7533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>6188</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -7548,12 +7589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>6188</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C124">
         <v>12</v>
@@ -7604,12 +7645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>6188</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -7660,12 +7701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>6188</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -7716,12 +7757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>6188</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -7772,12 +7813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>6188</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -7828,12 +7869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>6188</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -7884,12 +7925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>6188</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>6</v>
@@ -7940,12 +7981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>6188</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>7</v>
@@ -7996,12 +8037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>6188</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -8052,12 +8093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>6188</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -8108,12 +8149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>6188</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>10</v>
@@ -8164,12 +8205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>6188</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>11</v>
@@ -8220,12 +8261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>6188</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C136">
         <v>12</v>
@@ -8276,12 +8317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>6188</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -8332,12 +8373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>6188</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -8388,12 +8429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>6188</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -8444,12 +8485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>6188</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -8500,12 +8541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>6188</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -8556,12 +8597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>6188</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C142">
         <v>6</v>
@@ -8612,12 +8653,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>6188</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C143">
         <v>7</v>
@@ -8668,12 +8709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>6188</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C144">
         <v>8</v>
@@ -8724,12 +8765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>6188</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -8780,12 +8821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>6188</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C146">
         <v>10</v>
@@ -8836,12 +8877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>6188</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>11</v>
@@ -8892,12 +8933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>6188</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148">
         <v>12</v>
@@ -8948,12 +8989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>6188</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -9004,12 +9045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>6188</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -9060,12 +9101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>6188</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C151">
         <v>3</v>
@@ -9116,12 +9157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>6188</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -9172,12 +9213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>6188</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -9228,12 +9269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>6188</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -9284,12 +9325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>6188</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>7</v>
@@ -9340,12 +9381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156">
         <v>6188</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -9396,12 +9437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157">
         <v>6188</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>9</v>
@@ -9452,12 +9493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158">
         <v>6188</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>10</v>
@@ -9508,12 +9549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>6188</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>11</v>
@@ -9564,12 +9605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160">
         <v>6188</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160">
         <v>12</v>
@@ -9620,12 +9661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161">
         <v>6188</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -9676,12 +9717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162">
         <v>6188</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -9732,12 +9773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163">
         <v>6188</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -9800,12 +9841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9817,12 +9858,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
